--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T17:20:30+00:00</t>
+    <t>2022-01-04T09:41:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-04T09:41:13+00:00</t>
+    <t>2022-01-04T09:53:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-04T09:53:47+00:00</t>
+    <t>2022-01-04T10:47:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-04T10:47:37+00:00</t>
+    <t>2022-01-04T11:54:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-04T11:54:28+00:00</t>
+    <t>2022-01-04T12:00:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-04T12:00:37+00:00</t>
+    <t>2022-01-05T09:45:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-05T09:45:00+00:00</t>
+    <t>2022-01-05T19:33:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-05T19:33:35+00:00</t>
+    <t>2022-01-06T17:45:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-06T17:45:57+00:00</t>
+    <t>2022-01-25T16:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T16:57:24+00:00</t>
+    <t>2022-01-25T17:05:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T17:05:46+00:00</t>
+    <t>2022-01-25T17:18:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T17:18:16+00:00</t>
+    <t>2022-01-25T17:23:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T17:23:33+00:00</t>
+    <t>2022-01-25T17:25:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T17:25:01+00:00</t>
+    <t>2022-01-25T17:31:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T17:31:33+00:00</t>
+    <t>2022-01-26T09:44:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T09:44:32+00:00</t>
+    <t>2022-01-26T10:23:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T10:23:18+00:00</t>
+    <t>2022-01-26T10:32:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T10:32:28+00:00</t>
+    <t>2022-01-26T15:09:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T15:09:20+00:00</t>
+    <t>2022-01-26T17:22:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T17:22:48+00:00</t>
+    <t>2022-01-26T17:42:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T17:42:05+00:00</t>
+    <t>2022-01-27T10:33:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T10:33:03+00:00</t>
+    <t>2022-01-27T11:55:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T11:55:52+00:00</t>
+    <t>2022-01-27T12:11:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T12:11:00+00:00</t>
+    <t>2022-01-27T12:18:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T12:18:33+00:00</t>
+    <t>2022-01-27T13:02:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T13:02:02+00:00</t>
+    <t>2022-01-27T13:14:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T13:14:27+00:00</t>
+    <t>2022-01-27T13:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T13:16:24+00:00</t>
+    <t>2022-01-27T14:15:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T14:15:49+00:00</t>
+    <t>2022-01-27T14:24:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T14:24:59+00:00</t>
+    <t>2022-01-27T14:26:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T14:26:36+00:00</t>
+    <t>2022-01-27T14:37:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T14:37:11+00:00</t>
+    <t>2022-01-27T15:29:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T15:29:00+00:00</t>
+    <t>2022-01-27T15:35:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T15:35:43+00:00</t>
+    <t>2022-01-27T16:48:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T16:48:37+00:00</t>
+    <t>2022-01-27T17:34:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T17:34:32+00:00</t>
+    <t>2022-01-27T17:42:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T17:42:33+00:00</t>
+    <t>2022-01-27T17:55:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T17:55:49+00:00</t>
+    <t>2022-01-28T08:56:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T08:56:12+00:00</t>
+    <t>2022-01-28T10:40:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:40:14+00:00</t>
+    <t>2022-01-28T10:43:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:43:57+00:00</t>
+    <t>2022-01-28T10:49:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:49:11+00:00</t>
+    <t>2022-01-28T10:53:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:53:33+00:00</t>
+    <t>2022-02-02T15:40:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
+++ b/StructureDefinition-VirtualPharmaceuticalProdutGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-02T15:40:24+00:00</t>
+    <t>2022-02-03T09:51:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
